--- a/ScriptsDocs/JDdata.xlsx
+++ b/ScriptsDocs/JDdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A171EC8F-E59E-453C-9640-7C1E3AE00248}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2DE813-AA0A-48F5-96E5-8DA38A71939F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Client name</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>development</t>
+  </si>
+  <si>
+    <t>Sl.no</t>
   </si>
 </sst>
 </file>
@@ -379,87 +382,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B10"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+      <c r="E2">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
+      <c r="I2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
+      <c r="J2">
         <v>200000</v>
       </c>
     </row>

--- a/ScriptsDocs/JDdata.xlsx
+++ b/ScriptsDocs/JDdata.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2DE813-AA0A-48F5-96E5-8DA38A71939F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962CDA25-DBAF-4B38-8177-41F35AB2053D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="JD" sheetId="1" r:id="rId1"/>
+    <sheet name="Skills" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Client name</t>
   </si>
@@ -65,6 +66,24 @@
   </si>
   <si>
     <t>Sl.no</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>requirements</t>
+  </si>
+  <si>
+    <t>perks</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>more details</t>
+  </si>
+  <si>
+    <t>skills as text</t>
   </si>
 </sst>
 </file>
@@ -382,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,9 +416,13 @@
     <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" customWidth="1"/>
+    <col min="12" max="12" width="38.28515625" customWidth="1"/>
+    <col min="14" max="14" width="31.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -430,8 +453,23 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -461,6 +499,26 @@
       </c>
       <c r="J2">
         <v>200000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60555D27-6FB9-43F8-8519-248E8D957F0F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/ScriptsDocs/JDdata.xlsx
+++ b/ScriptsDocs/JDdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962CDA25-DBAF-4B38-8177-41F35AB2053D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1082F6-2F96-4F8D-B319-52C4C685BF96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Client name</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>skills as text</t>
+  </si>
+  <si>
+    <t>angular</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>At least 5 years of experience in java 1.8, Microservices, Springboot, Angular. Lead and mentor junior team members. NOSQL data stores such as MongoDB and relational data stores such as Postgres. Experience with IaaS and PaaS providers such as AWS and Azure; container and orchestration technologies. Excellent written and verbal communication skills. Pre-sales activities - customer presentations, RFP/RFI responses, Project Discoveries, Consulting</t>
   </si>
 </sst>
 </file>
@@ -119,8 +128,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +481,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="195" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -499,6 +511,21 @@
       </c>
       <c r="J2">
         <v>200000</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -508,17 +535,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60555D27-6FB9-43F8-8519-248E8D957F0F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/ScriptsDocs/JDdata.xlsx
+++ b/ScriptsDocs/JDdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1082F6-2F96-4F8D-B319-52C4C685BF96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F549C834-1041-40EE-9862-DC0798B51180}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Client name</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>At least 5 years of experience in java 1.8, Microservices, Springboot, Angular. Lead and mentor junior team members. NOSQL data stores such as MongoDB and relational data stores such as Postgres. Experience with IaaS and PaaS providers such as AWS and Azure; container and orchestration technologies. Excellent written and verbal communication skills. Pre-sales activities - customer presentations, RFP/RFI responses, Project Discoveries, Consulting</t>
+  </si>
+  <si>
+    <t>spring</t>
   </si>
 </sst>
 </file>
@@ -415,7 +418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -535,25 +538,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60555D27-6FB9-43F8-8519-248E8D957F0F}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/ScriptsDocs/JDdata.xlsx
+++ b/ScriptsDocs/JDdata.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756925D4-E81C-4C4D-B61E-74710EF039AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE6320C-84FB-4356-A6C8-DF44EEB6F42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JD" sheetId="1" r:id="rId1"/>
-    <sheet name="Candidate" sheetId="3" r:id="rId2"/>
+    <sheet name="Candidate" sheetId="4" r:id="rId2"/>
     <sheet name="Skills" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Client name</t>
   </si>
@@ -103,16 +103,69 @@
   </si>
   <si>
     <t>No Perks</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>contact_no</t>
+  </si>
+  <si>
+    <t>current_company</t>
+  </si>
+  <si>
+    <t>current_CTC</t>
+  </si>
+  <si>
+    <t>expected_CTC</t>
+  </si>
+  <si>
+    <t>Notice</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>Test_can_aut01_FN</t>
+  </si>
+  <si>
+    <t>Test_can_aut01_LN</t>
+  </si>
+  <si>
+    <t>test@0001.gmail</t>
+  </si>
+  <si>
+    <t>Immediate</t>
+  </si>
+  <si>
+    <t>USD*</t>
+  </si>
+  <si>
+    <t>Infinite</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,16 +188,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -425,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,13 +597,81 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F450F1A-2162-44A6-9375-AAAFD1CB4FB6}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC8C7F8-5D4E-4222-BBF1-4F0209FF96CA}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2">
+        <v>943001022</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2">
+        <v>200000</v>
+      </c>
+      <c r="I2">
+        <v>300000</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{E18ABBB7-1060-4CFF-B76E-F22AB8374DA4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/ScriptsDocs/JDdata.xlsx
+++ b/ScriptsDocs/JDdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE6320C-84FB-4356-A6C8-DF44EEB6F42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43B07A6-5D72-45F2-9B39-880574BBA8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Client name</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Infinite</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>USA</t>
   </si>
 </sst>
 </file>
@@ -598,19 +604,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC8C7F8-5D4E-4222-BBF1-4F0209FF96CA}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -638,8 +645,11 @@
       <c r="I1" t="s">
         <v>33</v>
       </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -650,7 +660,7 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>943001022</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -666,6 +676,9 @@
       </c>
       <c r="I2">
         <v>300000</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/ScriptsDocs/JDdata.xlsx
+++ b/ScriptsDocs/JDdata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43B07A6-5D72-45F2-9B39-880574BBA8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D508CD-1511-46D9-96A0-3B95BDEB4AF6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>Client name</t>
   </si>
@@ -75,15 +75,6 @@
     <t>skills as text</t>
   </si>
   <si>
-    <t>angular</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>spring</t>
-  </si>
-  <si>
     <t>Mphasis</t>
   </si>
   <si>
@@ -154,6 +145,45 @@
   </si>
   <si>
     <t>USA</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>sundar</t>
+  </si>
+  <si>
+    <t>pune</t>
+  </si>
+  <si>
+    <t>developer</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
+  </si>
+  <si>
+    <t>jd id</t>
+  </si>
+  <si>
+    <t>JD_DE1665739158</t>
+  </si>
+  <si>
+    <t>test@0002.gmail</t>
+  </si>
+  <si>
+    <t>test@0003.gmail</t>
   </si>
 </sst>
 </file>
@@ -485,28 +515,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.453125" customWidth="1"/>
-    <col min="12" max="12" width="38.26953125" customWidth="1"/>
-    <col min="14" max="14" width="31.54296875" customWidth="1"/>
-    <col min="15" max="15" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" customWidth="1"/>
+    <col min="12" max="12" width="38.28515625" customWidth="1"/>
+    <col min="14" max="14" width="31.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -552,31 +583,34 @@
       <c r="O1" t="s">
         <v>15</v>
       </c>
+      <c r="P1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I2">
         <v>200000</v>
@@ -587,13 +621,45 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>18</v>
+      <c r="P2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3">
+        <v>330000</v>
+      </c>
+      <c r="J3">
+        <v>400000</v>
       </c>
     </row>
   </sheetData>
@@ -604,72 +670,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC8C7F8-5D4E-4222-BBF1-4F0209FF96CA}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D2">
         <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>200000</v>
@@ -678,12 +744,78 @@
         <v>300000</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3">
+        <v>200000</v>
+      </c>
+      <c r="I3">
+        <v>300000</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4">
+        <v>123</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4">
+        <v>200000</v>
+      </c>
+      <c r="I4">
+        <v>300000</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{E18ABBB7-1060-4CFF-B76E-F22AB8374DA4}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{F17C6F07-274B-4BA1-8345-58B56D44A5B8}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{B801293F-CB48-4246-A011-2F234F1E72F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -691,31 +823,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60555D27-6FB9-43F8-8519-248E8D957F0F}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>48</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ScriptsDocs/JDdata.xlsx
+++ b/ScriptsDocs/JDdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D508CD-1511-46D9-96A0-3B95BDEB4AF6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8024ECD4-6CF8-4A29-843B-357DE1EE4E29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
